--- a/live_and_upcoming.xlsx
+++ b/live_and_upcoming.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1527,7 +1527,6 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
           <t>Hardwood Palace (Sep 27-28)</t>
@@ -1548,6 +1547,6857 @@
           <t>Rocklin, California, United States</t>
         </is>
       </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MAIG 2025</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>aig.vball@gmail.com</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>VOLLEYBALL</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Edmonton, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>The Soccer Box Indoor Fall 25' League</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>psamuels@thesoccerbox.com</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Richardson, Texas, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RSK Sports Middle School League</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>rjkuranda@aol.com</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Appleton, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>YOUTH BLUE LEAGUE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>fredblue187@gmail.com</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Chico, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MAIG 2025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>aig.vball@gmail.com</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>VOLLEYBALL</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Edmonton, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025 MAIG Basketball Tournament</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>mab.ind.games@gmail.com</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Edmonton, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Saturday Showdown I @ Iron Peak powered by FCP</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>njfcp@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Marlboro, New Jersey, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>YRSA Festival #5</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>info@yrsa.ca</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Vaughan, Ontario, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Fall Ball Hooper's Call</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>sfbay.tnt@gmail.com</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>San Leandro, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Hardwood Palace (Sep 13-14)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Summer Bash</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>tripledouble916@gmail.com</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Sacramento, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Bay Area Flight Fall Session #1</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>keithb@ultimatefieldhouse.com</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Walnut Creek, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>JJs Coed Tournament</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>buffdumarce@gmail.com</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SOFTBALL</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Watertown, South Dakota, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025 MAIG Ball Hockey Tournament</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ab.ind.games@gmail.com</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>BALL HOCKEY</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Edmonton, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025 MAIG Ball Hockey Tournament</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ab.ind.games@gmail.com</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>BALL HOCKEY</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Edmonton, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025 MAIG Soccer Tournament</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>mab.ind.games@gmail.com</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Edmonton, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>DE Fall Brawl</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>tamartinbaseball@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Grayson, Kentucky, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025 MAIG Fastpitch Softball Tournament</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ab.ind.games@gmail.com</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Edmonton, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Fall Swish / Heat Invitational</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>rwgarcia_rwgarcia@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>9/14/25 - BLOCKSPORT SUNDAY SWISH</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>tprice@blocksportvbc.com</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Terrell, Texas, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Storm 14U September 14th 2025 Tournament</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>bradybagwan@gmail.com</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>SOFTBALL</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Exton, Pennsylvania, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Paul George Elite 2034 Tryouts</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>dctt916@icloud.com</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Sacramento, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>HWP ABL D League Red Division</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>HWP Adult League (C Division)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>HWP Adult League D Blue</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025 Golden Gate Fall League</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>rick@northbaybasketballacademy.com</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Fairfield, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025 Fall League Powered by SFP &amp; Marquee Sports and Events</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>marqueesportsandevents@gmail.com</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>North Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Fall Basketball League '25 Powered by SFP &amp; Marquee Sports &amp; Events</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>marqueesportsandevents@gmail.com</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>North Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>BLUE LEAGUE</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>fredblue187@gmail.com</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Chico, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Fall 2025 City of Novato Adult League</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>rick@northbaybasketballacademy.com</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Novato, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>SAPEC League 2025</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>matt.biollo@spschools.org</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>VOLLEYBALL</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>St. Albert, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>EOTO Men's League</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ballmovementinc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Lawrenceville, Georgia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>QuickKick 3v3</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>info@airpitchevents.com</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Manalapan Township, New Jersey, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>The September Showdown - 20, 2025</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>angela.cuellar@courtsidesportsmanteca.com</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Manteca, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Westcoast Takeover FALL SHOOTOUT</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>info@thebballhub.com</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Carmichael, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Keelhauler Jamboree</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>iamenra@csum.edu</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Vallejo, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Bring Her Out 2025</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Hardwood Palace (Sep 20-21)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Saturday Showdown II @ Iron Peak powered by FCP</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>njfcp@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Hillsborough, New Jersey, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Bears Fall Classic</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>scott.thoma14@gmail.com</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>SOFTBALL</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>West Branch, Iowa, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2025 Fall Tip Off</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>rick@northbaybasketballacademy.com</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Walnut Creek, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>FCAA Fall Baseball 2025</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>kclark0804@att.net</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Jacksonville, Florida, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>3v3 Canada | Sudbury Showdown</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>info@3v3canada.com</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Greater Sudbury, Ontario, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Summercup Qualifiers 2025</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Howtaz@gmail.com</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>ESPORT</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Jakarta, Daerah Khusus Ibukota Jakarta, Indonesia</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>5x5 Phenom League (Fall)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>info@prolificsportshouse.com</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Calgary, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Spring Cup 2025</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>paigeteture@gmail.com</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Malvern East, Victoria, Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>MD Hoopmasters Youth 3v3 Basketball Tournament</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>mdladyhoopmasters@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>New Windsor, Maryland, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>September to Remember</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>pjbielak1977@gmail.com</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>SOFTBALL</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>South Amboy, New Jersey, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Fall League 2025</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>kpieroway@gmail.com</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Tucson, Arizona, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>The Soccer Box Indoor Fall 25' League</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>psamuels@thesoccerbox.com</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Richardson, Texas, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>RSK Sports Middle School League</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>rjkuranda@aol.com</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Appleton, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>YOUTH BLUE LEAGUE</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>fredblue187@gmail.com</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Chico, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>MAIG 2025</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>aig.vball@gmail.com</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>VOLLEYBALL</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Edmonton, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2025 MAIG Basketball Tournament</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>mab.ind.games@gmail.com</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Edmonton, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Saturday Showdown I powered by FCP</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>njfcp@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Marlboro, New Jersey, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>YRSA Festival #5</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>info@yrsa.ca</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Vaughan, Ontario, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Fall Ball Hooper's Call</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>sfbay.tnt@gmail.com</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>San Leandro, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Hardwood Palace (Sep 13-14)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Summer Bash</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>tripledouble916@gmail.com</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Sacramento, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Bay Area Flight Fall Session #1</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>keithb@ultimatefieldhouse.com</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Walnut Creek, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>JJs Coed Tournament</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>buffdumarce@gmail.com</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>SOFTBALL</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Watertown, South Dakota, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2025 MAIG Ball Hockey Tournament</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ab.ind.games@gmail.com</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>BALL HOCKEY</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Edmonton, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2025 MAIG Ball Hockey Tournament</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ab.ind.games@gmail.com</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>BALL HOCKEY</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Edmonton, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2025 MAIG Soccer Tournament</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>mab.ind.games@gmail.com</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Edmonton, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>DE Fall Brawl</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>tamartinbaseball@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Grayson, Kentucky, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2025 MAIG Fastpitch Softball Tournament</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ab.ind.games@gmail.com</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Edmonton, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Fall Swish / Heat Invitational</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>rwgarcia_rwgarcia@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>9/14/25 - BLOCKSPORT SUNDAY SWISH</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>tprice@blocksportvbc.com</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Terrell, Texas, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Storm 14U September 14th 2025 Tournament</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>bradybagwan@gmail.com</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>SOFTBALL</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Exton, Pennsylvania, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Paul George Elite 2034 Tryouts</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>dctt916@icloud.com</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Sacramento, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>HWP ABL D League Red Division</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>HWP Adult League (C Division)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>HWP Adult League D Blue</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2025 Golden Gate Fall League</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>rick@northbaybasketballacademy.com</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Fairfield, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2025 Fall League Powered by SFP &amp; Marquee Sports and Events</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>marqueesportsandevents@gmail.com</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>North Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Fall Basketball League '25 Powered by SFP &amp; Marquee Sports &amp; Events</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>marqueesportsandevents@gmail.com</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>North Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>BLUE LEAGUE</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>fredblue187@gmail.com</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Chico, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Fall 2025 City of Novato Adult League</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>rick@northbaybasketballacademy.com</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Novato, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>SAPEC League 2025</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>matt.biollo@spschools.org</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>VOLLEYBALL</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>St. Albert, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>EOTO Men's League</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>ballmovementinc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Lawrenceville, Georgia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>QuickKick 3v3</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>info@airpitchevents.com</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Manalapan Township, New Jersey, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>The September Showdown - 20, 2025</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>angela.cuellar@courtsidesportsmanteca.com</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Manteca, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Westcoast Takeover FALL SHOOTOUT</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>info@thebballhub.com</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Carmichael, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Keelhauler Jamboree</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>iamenra@csum.edu</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Vallejo, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Bring Her Out 2025</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Hardwood Palace (Sep 20-21)</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Saturday Showdown II @ Iron Peak powered by FCP</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>njfcp@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Hillsborough, New Jersey, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Bears Fall Classic</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>scott.thoma14@gmail.com</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>SOFTBALL</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>West Branch, Iowa, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2025 Fall Tip Off</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>rick@northbaybasketballacademy.com</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Walnut Creek, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>FCAA Fall Baseball 2025</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>kclark0804@att.net</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Jacksonville, Florida, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>3v3 Canada | Sudbury Showdown</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>info@3v3canada.com</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Greater Sudbury, Ontario, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Summercup Qualifiers 2025</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Howtaz@gmail.com</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>ESPORT</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Jakarta, Daerah Khusus Ibukota Jakarta, Indonesia</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>5x5 Phenom League (Fall)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>info@prolificsportshouse.com</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Calgary, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Spring Cup 2025</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>paigeteture@gmail.com</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Malvern East, Victoria, Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>MD Hoopmasters Youth 3v3 Basketball Tournament</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>mdladyhoopmasters@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>New Windsor, Maryland, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>September to Remember</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>pjbielak1977@gmail.com</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>SOFTBALL</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>South Amboy, New Jersey, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Hardwood Palace (Sep 27-28)</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>The Fall Opener @ Iron Peak powered by FCP</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>njfcp@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Hillsborough, New Jersey, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Bay Area Flight Fall Session #2</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>keithb@ultimatefieldhouse.com</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Walnut Creek, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>FALL SHOWCASE</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>SZNSHOWCASE@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Hayward, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Next Level Fall 5v5 Soccer Tournament 2025</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>alexei@thelliotts.net</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Elkridge, Maryland, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>3v3 AirPitch Fest in the Valley</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>info@airpitchevents.com</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Middleburgh, New York, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>MD Hoopmasters Adult 3v3 Basketball tournament</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>mdladyhoopmasters@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>New Windsor, Maryland, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Fall Tip-Off - 4, 2025</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>angela.cuellar@courtsidesportsmanteca.com</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Manteca, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Hardwood Palace (Oct 4-5)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>The Fall Tip Off @ Iron Peak powered by FCP</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>njfcp@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Hillsborough, New Jersey, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Hoop 121 x Hoop Community USA: OCTOBER HOOPFEST 2025</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>bayareahoopcommunity@gmail.com</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Livermore, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Bay Area Flight Fall Session #3</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>keithb@ultimatefieldhouse.com</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Walnut Creek, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Stadium Series 2025: York Lions | National Qualfier Event</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>info@3v3canada.com</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Toronto, Ontario, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Girls High School Rise n Shine League</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>rjkuranda@aol.com</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Appleton, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Boys High School Rise n Shine League</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>rjkuranda@aol.com</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Appleton, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>The Battle 2025</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>info@alloutsportsleague.com</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Hardwood Palace (Oct 11-12)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>The Fall Clash @ Clark powered by FCP</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>njfcp@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Clark, New Jersey, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Westcoast Takeover FALL BALL CLASSIC</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>info@thebballhub.com</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Sacramento, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Cen Cal Drip Fall Skills and Exposure Camp</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>youthsports@cencaldrive.com</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Fresno, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Storm 12U October 12th 2025 Tournament</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>bradybagwan@gmail.com</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>SOFTBALL</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Exton, Pennsylvania, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2025 Jr. Nomad Volleyball Invitational</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>johnsonw@prsd.ab.ca</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>VOLLEYBALL</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Peace River, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2025 GOOD Hoops Fall Classic</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>admin@goodhoops.ca</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Edmonton, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>RSK SPORTS 3ON3 TIPOFF CLASSIC</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>rjkuranda@aol.com</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Appleton, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>The Burton Classic</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Hauppauge, New York, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Hoop or Treat- 18, 2025</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>angela.cuellar@courtsidesportsmanteca.com</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Manteca, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Super 60 Elite Camp</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>info@thebballhub.com</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Sacramento, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Playing For Pink: Breast Cancer Awareness 2025</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Hardwood Palace (Oct 18-19)</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>The Collision @ Iron Peak powered by FCP</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>njfcp@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Hillsborough, New Jersey, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Hawaii Fall Showcase</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>jokada@hawaiisf.org</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>SOFTBALL</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Honolulu, Hawaii, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Bay Area Flight Fall Session #4</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>keithb@ultimatefieldhouse.com</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Walnut Creek, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2025 OCTOBER SHOWDOWN Powered By SHOWDOWN SERIES</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>tournaments@eliteacesathletics.com</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Edmonton, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>24/8 x Hoop Community USA: HOOPY HALLOWEEN</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>bayareahoopcommunity@gmail.com</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>San Rafael, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Hardwood Palace (Oct 25-26)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>The Spooky Shootout @ Clark powered by FCP</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>njfcp@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Clark, New Jersey, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Quickfoot Corsicana Kick or Treat</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Sandra@quickfoot.com</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Corsicana, Texas, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Cleats and Treats Monster Match - 3v3 Tournament</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>info@airpitchevents.com</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Turlock, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>3v3 Quebec</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>info@3v3canada.com</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Laval, Quebec, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Hoop Community USA: NOR CAL ALL STAR SHOWCASE</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>bayareahoopcommunity@gmail.com</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>The Sunday Harvest @ Clark powered by FCP</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>njfcp@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Clark, New Jersey, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>November Showdown - 1, 2025</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>angela.cuellar@courtsidesportsmanteca.com</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Manteca, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Day of the Dead 3v3 Tournament</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>info@airpitchevents.com</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Fort Worth, Texas, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Hardwood Palace (Nov 1-2)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Day of the Dead Terrell Quickfoot</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Sandra@quickfoot.com</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Terrell, Texas, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Slinger HOOPS Classic "A/B+" Tournament (5th-8th)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>slingerhoopsltd@gmail.com</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Slinger, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Hardwood Palace (Nov 8-9)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>The Beast of the East Challenge @ Iron Peak powered by FCP</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>njfcp@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Hillsborough, New Jersey, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Royse City Quickfoot Tournament</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Sandra@quickfoot.com</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Royse City, Texas, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>24/8 x Hoop Community: THANKSGIVING THROWDOWN</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>bayareahoopcommunity@gmail.com</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>San Rafael, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Harvest Hoopfest - 15, 2025</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>angela.cuellar@courtsidesportsmanteca.com</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Manteca, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2nd Annual Feast of Footwork</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>info@airpitchevents.com</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Lake Dallas, Texas, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>"Sac Vs Bay" Hardwood Palace (Nov 15-16)</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Beaver Dam Positively Hoops Just Gettin' Started 2025</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>info@bdpositivelyhoops.org</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Beaver Dam, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>The Fall Hoopfest @ Iron Peak powered by FCP</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>njfcp@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Hillsborough, New Jersey, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Coppell Turkey Shoot</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Sandra@quickfoot.com</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Coppell, Texas, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>RSK Sports It's Game Time Tournament Champion Center</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>rjkuranda@aol.com</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Appleton, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Adidas Larry Navilhon Invitational 2025</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>athletics@cornerstonechirstian.net</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Antioch, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>The Gravy Bowl 3v3 Tournament</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>info@airpitchevents.com</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Richardson, Texas, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Hardwood Palace (Nov 22-23)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>3v3 Canada Court Clash</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>info@3v3canada.com</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Kingston, Ontario, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>RSK Sports Thanksgiving 3on3 Tournament</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>rjkuranda@aol.com</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Appleton, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>25th Annual Turkey Shootout</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>keithb@ultimatefieldhouse.com</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Walnut Creek, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Fall Ball Classic - 29, 2025</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>angela.cuellar@courtsidesportsmanteca.com</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Manteca, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Hardwood Palace (Nov 29-30)</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>3v3 Canada Nationals</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>info@3v3canada.com</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Vaughan, Ontario, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Solar Mania 3v3 on AirPitch</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>info@airpitchevents.com</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Allen, Texas, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Hardwood Palace (Dec 6-7)</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Adidas Mr. Mike Main Event 2025</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>athletics@cornerstonechirstian.net</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Antioch, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Carondelet JV/Frosh Jamboree</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>claykallam@gmail.com</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Concord, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Hoop Community USA: CHRISTMAS CLASSIC</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>bayareahoopcommunity@gmail.com</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Winter Hoops Classic - 13, 2025</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>angela.cuellar@courtsidesportsmanteca.com</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Manteca, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Torneo de argolla india Heredia</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>derek.herdezc05@gmail.com</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>ARGOLLA INDIA SCOUT</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>San Roque, Heredia, Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Hardwood Palace (Dec 13-14)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Reindeer Games</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Sandra@quickfoot.com</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Wylie, Texas, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Hardwood Palace (Dec 20-21)</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>RSK Sports B Level 3rd 4th 5th 6th Boys Dec 21st Champion Center</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>rjkuranda@aol.com</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Appleton, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>25th Annual CYO Christmas Tournament</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>keithb@ultimatefieldhouse.com</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Walnut Creek, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>End-of-Year Tip-Off- 27, 2025</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>angela.cuellar@courtsidesportsmanteca.com</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Manteca, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Frost Fest 3v3- Frozen Rivals</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>info@airpitchevents.com</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Richardson, Texas, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Hardwood Palace (Dec 27-28)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>steve@hardwoodpalace.com</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Rocklin, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>RSK Sports Hortonville Holiday BOYS 3on3 Tournament</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>rjkuranda@aol.com</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Appleton, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>RSK Sports Hortonville Holiday GIRLS 3on3 Tournament</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>rjkuranda@aol.com</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Appleton, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>RSK Sports B Level 3rd 4th 5th Girls January 10th Ripon College</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>rjkuranda@aol.com</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Ripon, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Southwood Winter Blast</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Sandra@quickfoot.com</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Roanoke, Texas, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>RSK Sports B Level 6th 7th 8th Grade Girls Jan 11th Ripon College</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>rjkuranda@aol.com</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Ripon, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>MLK Classic 2026</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>athletics@cornerstonechirstian.net</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Antioch, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>RSK Sports B Level 5th 6th 7th 8th Boys Jan 18th Champion Center</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>rjkuranda@aol.com</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Appleton, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>RSK Sports B Level 3rd 4th 5th 6th Boys Jan 25th Champion Center</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>rjkuranda@aol.com</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Appleton, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Slinger HOOPS Classic "B/C" Tournament (5th-8th)</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>slingerhoopsltd@gmail.com</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Slinger, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Beaver Dam Positively Hoops Winter Classic 2026</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>info@bdpositivelyhoops.org</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Beaver Dam, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Greenfield Sweetheart Classic</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>james.allen@coachnoodles.com</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Greenfield, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Love and Basketball</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>RSK Sports B Level 3rd 4th 5th Boys Feb 15th Ripon College</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>rjkuranda@aol.com</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Ripon, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2026 Clash at the Coast</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>alemanj@iwacc.org</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>SOFTBALL</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Portland, Texas, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Havoc Invitational</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>She Got Game 2026</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>RSK Sports B Level 6th 7th 8th Boys March 8th Ripon College</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>rjkuranda@aol.com</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Ripon, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>We Got Next 2026</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>info@alloutsportsleague.com</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>804/757 Tip Off Tournament</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>RSK Sports B Level 5th 6th 7th 8th Boys Mar 21st Champion Center</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>rjkuranda@aol.com</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Appleton, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>RSK Sports A Level School Ball Season Finale Tournament Mar 21st</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>rjkuranda@aol.com</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Appleton, Wisconsin, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>The HUB Classic Volume #1</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>info@thebballhub.com</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Salt Lake City, Utah, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>TTC Invitational</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Cap City Classic</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2026 GOOD Hoops Invitational</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>admin@goodhoops.ca</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Edmonton, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>TTC One Day Shootout</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>I Am Her Invitational 2026</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Richmond Invitational</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2026 GOOD Hoops Spring Classic</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>admin@goodhoops.ca</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Edmonton, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Mother's Day Classic</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Go All Out 2026</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>info@alloutsportsleague.com</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Ladies First 2026</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Novato, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Memorial Day Classic</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2026 GOOD Hoops Summer Slam</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>admin@goodhoops.ca</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>Edmonton, Alberta, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Ballers Classic</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Queens of the Court 2026</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Father's Day Classic</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Throwback Sunday</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>baseballforeveroc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>BASEBALL</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>Long Beach, Ca, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Blaze In The Bay 2026</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>info@alloutsportsleague.com</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Havoc Invitational</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>National Invite Tournament</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>King of Prussia, Pennsylvania, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>TTC One Day Shootout</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Burton Invitational</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Hauppauge, New York, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Bring Her Out 2026</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>The Battle 2026</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>info@alloutsportsleague.com</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Playing For Pink: Breast Cancer Awareness 2026</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Volleyball Tournament</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>micaela.visser@mdevz.com</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>VOLLEYBALL</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>Buenos Aires, Ciudad Autónoma de Buenos Aires, Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Soccer Tournament</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>micaela.visser@mdevz.com</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>Buenos Aires, Ciudad Autónoma de Buenos Aires, Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>[COPY] Soccer Tournament</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>TTC One Day Shootout</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Burton Invitational</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>Hauppauge, New York, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Bring Her Out 2026</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>The Battle 2026</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>info@alloutsportsleague.com</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Playing For Pink: Breast Cancer Awareness 2026</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Volleyball Tournament</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>micaela.visser@mdevz.com</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>VOLLEYBALL</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>Buenos Aires, Ciudad Autónoma de Buenos Aires, Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Soccer Tournament</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>micaela.visser@mdevz.com</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>Buenos Aires, Ciudad Autónoma de Buenos Aires, Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>[COPY] Soccer Tournament</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>TTC One Day Shootout</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Burton Invitational</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>Hauppauge, New York, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Bring Her Out 2026</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>The Battle 2026</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>info@alloutsportsleague.com</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Playing For Pink: Breast Cancer Awareness 2026</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Volleyball Tournament</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>micaela.visser@mdevz.com</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>VOLLEYBALL</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>Buenos Aires, Ciudad Autónoma de Buenos Aires, Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Soccer Tournament</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>micaela.visser@mdevz.com</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>Buenos Aires, Ciudad Autónoma de Buenos Aires, Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>[COPY] Soccer Tournament</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>TTC One Day Shootout</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Burton Invitational</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>Hauppauge, New York, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Bring Her Out 2026</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>The Battle 2026</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>info@alloutsportsleague.com</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Playing For Pink: Breast Cancer Awareness 2026</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Volleyball Tournament</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>micaela.visser@mdevz.com</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>VOLLEYBALL</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>Buenos Aires, Ciudad Autónoma de Buenos Aires, Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Soccer Tournament</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>micaela.visser@mdevz.com</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>Buenos Aires, Ciudad Autónoma de Buenos Aires, Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>[COPY] Soccer Tournament</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>TTC One Day Shootout</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Burton Invitational</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>Hauppauge, New York, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Bring Her Out 2026</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>The Battle 2026</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>info@alloutsportsleague.com</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Playing For Pink: Breast Cancer Awareness 2026</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Volleyball Tournament</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>micaela.visser@mdevz.com</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>VOLLEYBALL</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>Buenos Aires, Ciudad Autónoma de Buenos Aires, Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Soccer Tournament</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>micaela.visser@mdevz.com</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>Buenos Aires, Ciudad Autónoma de Buenos Aires, Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>[COPY] Soccer Tournament</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>TTC One Day Shootout</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Burton Invitational</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>Hauppauge, New York, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Bring Her Out 2026</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>The Battle 2026</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>info@alloutsportsleague.com</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Playing For Pink: Breast Cancer Awareness 2026</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Volleyball Tournament</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>micaela.visser@mdevz.com</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>VOLLEYBALL</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>Buenos Aires, Ciudad Autónoma de Buenos Aires, Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Soccer Tournament</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>micaela.visser@mdevz.com</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>Buenos Aires, Ciudad Autónoma de Buenos Aires, Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>[COPY] Soccer Tournament</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>TTC One Day Shootout</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>Chesterfield, Virginia, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Burton Invitational</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>coachjcrane@sfpathletics.com</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>Hauppauge, New York, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Bring Her Out 2026</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>The Battle 2026</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>info@alloutsportsleague.com</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Playing For Pink: Breast Cancer Awareness 2026</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>info@shecanhoopcircuit.com</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>BASKETBALL</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>Martinez, California, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Volleyball Tournament</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>micaela.visser@mdevz.com</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>VOLLEYBALL</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>Buenos Aires, Ciudad Autónoma de Buenos Aires, Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Soccer Tournament</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>micaela.visser@mdevz.com</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>SOCCER</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Buenos Aires, Ciudad Autónoma de Buenos Aires, Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr"/>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>[COPY] Soccer Tournament</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr"/>
+      <c r="D367" t="inlineStr"/>
+      <c r="E367" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
